--- a/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
+++ b/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
@@ -125,25 +125,24 @@
     <t>Asignar como tarea la actualización del script del proceso de ontología.</t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar la calidad respecto a las interfaces de usuario. Constuir un estandar de interfaces de usuario
-para las pantallas de estados y períodos tomando como modelo las pantallas de SWB para asignar elementos.
+    <t>El producto Administración de series se le asignará a Carlos y no cede José. Esto derivado de la dependencia de productos con Recurso de criterios de semaforización.</t>
+  </si>
+  <si>
+    <t>Definir en el reporte semanal, el resumen de recomendaciones y acciones sobre las metas y los riesgos.</t>
+  </si>
+  <si>
+    <t>Todo el proyecto</t>
+  </si>
+  <si>
+    <t>Esta semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentar las diferencias entre las pantallas de estados y períodos y considerarlas para un estándar. En la siguiente reunión se planean los cambios en los productos.
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-Si existe alguna reunión intersemanal, enviar la convocatorio junto con los puntos a tratar. Considerar sólo reuniones de temas urgentes. Evitando así, reuniones improvisadas.</t>
-  </si>
-  <si>
-    <t>El producto Administración de series se le asignará a Carlos y no cede José. Esto derivado de la dependencia de productos con Recurso de criterios de semaforización.</t>
-  </si>
-  <si>
-    <t>Definir en el reporte semanal, el resumen de recomendaciones y acciones sobre las metas y los riesgos.</t>
-  </si>
-  <si>
-    <t>Todo el proyecto</t>
-  </si>
-  <si>
-    <t>Esta semana</t>
+Si existe alguna reunión intersemanal, enviar la convocatorio junto con los puntos a tratar. Considerar sólo reuniones de temas urgentes evitando así, reuniones improvisadas.</t>
   </si>
 </sst>
 </file>
@@ -332,32 +331,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +662,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,17 +752,17 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -804,14 +803,14 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -820,14 +819,14 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -836,14 +835,14 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -852,14 +851,14 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -868,14 +867,14 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -884,10 +883,10 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -896,24 +895,24 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1034,11 +1033,11 @@
       <c r="E38" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="9" t="s">
         <v>21</v>
       </c>
@@ -1047,105 +1046,108 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1156,16 +1158,13 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
+++ b/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="14115" windowHeight="5190"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,33 @@
   <si>
     <t xml:space="preserve">
 Si existe alguna reunión intersemanal, enviar la convocatorio junto con los puntos a tratar. Considerar sólo reuniones de temas urgentes evitando así, reuniones improvisadas.</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Manager's Report</t>
+  </si>
+  <si>
+    <t>Role Report</t>
+  </si>
+  <si>
+    <t>Proyect Status</t>
+  </si>
+  <si>
+    <t>Goal and Risk Reports</t>
+  </si>
+  <si>
+    <t>Meeting Wrap-up</t>
+  </si>
+  <si>
+    <t>Meeting Conclusion</t>
+  </si>
+  <si>
+    <t>Meeting Report</t>
   </si>
 </sst>
 </file>
@@ -331,6 +358,24 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,24 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,17 +779,17 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -803,14 +830,14 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -819,14 +846,14 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -835,14 +862,14 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -851,14 +878,14 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -867,14 +894,14 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -883,10 +910,10 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -895,24 +922,24 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,73 +970,153 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="10">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="B29" s="10">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
+        <v>0.4993055555555555</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="10">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.53125</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="10">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="10">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="10">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -1046,11 +1153,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="13" t="s">
         <v>28</v>
       </c>
@@ -1059,11 +1166,11 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="13" t="s">
         <v>23</v>
       </c>
@@ -1072,11 +1179,11 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="13" t="s">
         <v>31</v>
       </c>
@@ -1085,11 +1192,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="13" t="s">
         <v>23</v>
       </c>
@@ -1098,11 +1205,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="13" t="s">
         <v>28</v>
       </c>
@@ -1111,11 +1218,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="13" t="s">
         <v>32</v>
       </c>
@@ -1124,11 +1231,11 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
@@ -1138,6 +1245,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -1148,23 +1272,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
+++ b/swbproys/gestor-bsc/doc/weekly/04_20130701/MinutaJuntaSemanal4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="14115" windowHeight="5190"/>
@@ -113,9 +113,6 @@
     <t>JRJN</t>
   </si>
   <si>
-    <t>JRJN y CIRI</t>
-  </si>
-  <si>
     <t>Llevar cuidadosamente los checklist de codificación.</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>Asignar como tarea la actualización del script del proceso de ontología.</t>
-  </si>
-  <si>
-    <t>El producto Administración de series se le asignará a Carlos y no cede José. Esto derivado de la dependencia de productos con Recurso de criterios de semaforización.</t>
   </si>
   <si>
     <t>Definir en el reporte semanal, el resumen de recomendaciones y acciones sobre las metas y los riesgos.</t>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>Meeting Report</t>
+  </si>
+  <si>
+    <t>El producto Administración de series se le asignará a Carlos y lo cede José. Esto derivado de la dependencia de productos con Recurso de criterios de semaforización.</t>
+  </si>
+  <si>
+    <t>MEJS, JRJN y CIRI</t>
   </si>
 </sst>
 </file>
@@ -358,32 +358,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,17 +779,17 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -830,14 +830,14 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -846,14 +846,14 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -862,14 +862,14 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -878,14 +878,14 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -894,14 +894,14 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -910,10 +910,10 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -922,24 +922,24 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>23</v>
@@ -992,7 +992,7 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>23</v>
@@ -1007,7 +1007,7 @@
         <v>0.4291666666666667</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>23</v>
@@ -1022,7 +1022,7 @@
         <v>0.49861111111111112</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>23</v>
@@ -1037,7 +1037,7 @@
         <v>0.51597222222222217</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>23</v>
@@ -1052,7 +1052,7 @@
         <v>0.53125</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>23</v>
@@ -1067,7 +1067,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>23</v>
@@ -1082,7 +1082,7 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>23</v>
@@ -1097,7 +1097,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>23</v>
@@ -1112,7 +1112,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>23</v>
@@ -1153,105 +1153,108 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="13" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1262,16 +1265,13 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
